--- a/src/test/java/com/liujun/network/zerocopy/zeroCopy/zerocopy_compore.xlsx
+++ b/src/test/java/com/liujun/network/zerocopy/zeroCopy/zerocopy_compore.xlsx
@@ -416,11 +416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="185567744"/>
-        <c:axId val="212954496"/>
+        <c:axId val="215657472"/>
+        <c:axId val="184164928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185567744"/>
+        <c:axId val="215657472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -430,7 +430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212954496"/>
+        <c:crossAx val="184164928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -438,7 +438,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212954496"/>
+        <c:axId val="184164928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,7 +449,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185567744"/>
+        <c:crossAx val="215657472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -796,7 +796,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
